--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 9.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 9.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihalev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A125ACF-6872-CC4B-91F9-5DAAA908E60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2214,7 +2215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -2446,18 +2447,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,7 +2466,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -3156,19 +3157,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK282"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>167</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>190</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>316</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>438</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>44417</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>44418</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>44419</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>44420</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>44421</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>44422</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>44422</v>
       </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>44423</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>44424</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="17" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>44425</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="18" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>44426</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="19" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>44427</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>44427</v>
       </c>
     </row>
-    <row r="20" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>44428</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="21" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>44429</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>44429</v>
       </c>
     </row>
-    <row r="22" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>44430</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="23" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>44431</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="24" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>44432</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="25" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>44433</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>44433</v>
       </c>
     </row>
-    <row r="26" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>44434</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>44434</v>
       </c>
     </row>
-    <row r="27" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>44435</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="28" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>44436</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>44436</v>
       </c>
     </row>
-    <row r="29" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>44437</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="30" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>44438</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="31" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>44439</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="32" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>44440</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="33" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>44441</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="34" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>44442</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="35" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>44443</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="36" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>44444</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="37" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>44445</v>
       </c>
@@ -8132,7 +8133,7 @@
         <v>44445</v>
       </c>
     </row>
-    <row r="38" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>44446</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="39" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>44447</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>44447</v>
       </c>
     </row>
-    <row r="40" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>44448</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="41" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>44449</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="42" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>44450</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="43" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>44451</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>44451</v>
       </c>
     </row>
-    <row r="44" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>44452</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>44452</v>
       </c>
     </row>
-    <row r="45" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>44453</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="46" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <v>44454</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="47" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>44455</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="48" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>44456</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="49" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>44457</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="50" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>44458</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="51" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>44459</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>44459</v>
       </c>
     </row>
-    <row r="52" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>44460</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>44460</v>
       </c>
     </row>
-    <row r="53" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>44461</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="54" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>44462</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="55" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>44463</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="56" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>44464</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="57" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>44465</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>44465</v>
       </c>
     </row>
-    <row r="58" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>44466</v>
       </c>
@@ -8801,7 +8802,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="59" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A59" s="23">
         <v>44467</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="60" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A60" s="23">
         <v>44468</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="61" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>44469</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="62" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
         <v>44470</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="63" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
         <v>44471</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="64" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A64" s="23">
         <v>44472</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="65" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A65" s="23">
         <v>44473</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>44473</v>
       </c>
     </row>
-    <row r="66" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A66" s="23">
         <v>44474</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="67" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>44475</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="68" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A68" s="23">
         <v>44476</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="69" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A69" s="23">
         <v>44477</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>44477</v>
       </c>
     </row>
-    <row r="70" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>44478</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>44478</v>
       </c>
     </row>
-    <row r="71" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>44479</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="72" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>44480</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="73" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>44481</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="74" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A74" s="23">
         <v>44482</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="75" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
         <v>44483</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="76" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A76" s="23">
         <v>44484</v>
       </c>
@@ -8999,10 +9000,10 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>444</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>445</v>
       </c>
@@ -9777,7 +9778,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>446</v>
       </c>
@@ -9791,19 +9792,19 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="DZ81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="DZ82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>447</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>448</v>
       </c>
@@ -9834,10 +9835,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>449</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="87" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>445</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>446</v>
       </c>
@@ -10206,19 +10207,19 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="DZ89" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="DZ90" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>447</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>448</v>
       </c>
@@ -10240,10 +10241,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>445</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>446</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>447</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>448</v>
       </c>
@@ -10653,10 +10654,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>455</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="103" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>445</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>446</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>447</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>448</v>
       </c>
@@ -13085,10 +13086,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="109" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>456</v>
       </c>
@@ -13483,10 +13484,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>457</v>
       </c>
@@ -13881,10 +13882,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="113" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>458</v>
       </c>
@@ -14279,10 +14280,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>459</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="BW117" s="1" t="s">
         <v>441</v>
@@ -14311,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>441</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>460</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>20861.520000000011</v>
       </c>
     </row>
-    <row r="120" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>461</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>462</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>441</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="123" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>441</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="124" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>464</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="125" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>465</v>
       </c>
@@ -17264,13 +17265,13 @@
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="DZ126" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>466</v>
       </c>
@@ -17662,10 +17663,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>467</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>475</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="131" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>476</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="132" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>441</v>
       </c>
@@ -17784,7 +17785,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="133" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>477</v>
       </c>
@@ -17810,10 +17811,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="134" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>478</v>
       </c>
@@ -17839,10 +17840,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>479</v>
       </c>
@@ -17865,10 +17866,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="U139" s="1">
         <v>1545.12</v>
@@ -17910,7 +17911,7 @@
         <v>16205.88</v>
       </c>
     </row>
-    <row r="140" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>480</v>
       </c>
@@ -18302,7 +18303,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="141" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>481</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="142" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>482</v>
       </c>
@@ -18324,7 +18325,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="143" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>483</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>484</v>
       </c>
@@ -18343,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>484</v>
       </c>
@@ -18351,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>485</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>486</v>
       </c>
@@ -19087,7 +19088,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="148" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>487</v>
       </c>
@@ -19455,7 +19456,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="149" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>488</v>
       </c>
@@ -19823,7 +19824,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>489</v>
       </c>
@@ -20191,7 +20192,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="151" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>490</v>
       </c>
@@ -20559,7 +20560,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="152" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>491</v>
       </c>
@@ -20927,7 +20928,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>492</v>
       </c>
@@ -21295,10 +21296,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>493</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>481</v>
       </c>
@@ -22073,7 +22074,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>482</v>
       </c>
@@ -22456,7 +22457,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>483</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="1">
         <v>0</v>
@@ -23202,7 +23203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="1">
         <v>0</v>
@@ -23565,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>494</v>
       </c>
@@ -23948,7 +23949,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>495</v>
       </c>
@@ -24331,7 +24332,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>496</v>
       </c>
@@ -24714,7 +24715,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>497</v>
       </c>
@@ -25097,7 +25098,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>498</v>
       </c>
@@ -25480,7 +25481,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>499</v>
       </c>
@@ -25863,7 +25864,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>500</v>
       </c>
@@ -26246,7 +26247,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>501</v>
       </c>
@@ -26629,10 +26630,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="169" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>502</v>
       </c>
@@ -27027,7 +27028,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="171" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A171" s="23">
         <v>43938</v>
       </c>
@@ -27038,7 +27039,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="172" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A172" s="23">
         <v>43939</v>
       </c>
@@ -27049,7 +27050,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="173" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A173" s="23">
         <v>43940</v>
       </c>
@@ -27060,7 +27061,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="174" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="DZ174" s="1">
         <v>0</v>
@@ -27069,7 +27070,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="DZ175" s="1">
         <v>0</v>
@@ -27078,7 +27079,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="176" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>494</v>
       </c>
@@ -27089,7 +27090,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>495</v>
       </c>
@@ -27100,7 +27101,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>496</v>
       </c>
@@ -27111,7 +27112,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>497</v>
       </c>
@@ -27122,7 +27123,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>498</v>
       </c>
@@ -27133,7 +27134,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="181" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>499</v>
       </c>
@@ -27144,7 +27145,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>500</v>
       </c>
@@ -27155,7 +27156,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>501</v>
       </c>
@@ -27166,10 +27167,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="184" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>504</v>
       </c>
@@ -27564,7 +27565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="186" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>481</v>
       </c>
@@ -27956,7 +27957,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>482</v>
       </c>
@@ -28348,7 +28349,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="188" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>483</v>
       </c>
@@ -28740,7 +28741,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="1">
         <v>0</v>
@@ -29127,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1">
         <v>0</v>
@@ -29514,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>505</v>
       </c>
@@ -29906,7 +29907,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>506</v>
       </c>
@@ -30298,7 +30299,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>507</v>
       </c>
@@ -30690,7 +30691,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>508</v>
       </c>
@@ -31082,7 +31083,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>509</v>
       </c>
@@ -31474,7 +31475,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>510</v>
       </c>
@@ -31866,7 +31867,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="197" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>511</v>
       </c>
@@ -32258,7 +32259,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="198" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>512</v>
       </c>
@@ -32650,10 +32651,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="199" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>513</v>
       </c>
@@ -32898,7 +32899,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="201" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>514</v>
       </c>
@@ -32909,7 +32910,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>515</v>
       </c>
@@ -33301,7 +33302,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>516</v>
       </c>
@@ -33693,7 +33694,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="204" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>517</v>
       </c>
@@ -34085,7 +34086,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="205" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>518</v>
       </c>
@@ -34477,7 +34478,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="206" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>519</v>
       </c>
@@ -34485,7 +34486,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="207" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>520</v>
       </c>
@@ -34859,7 +34860,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>521</v>
       </c>
@@ -35248,7 +35249,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="209" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>522</v>
       </c>
@@ -35637,7 +35638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="210" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>523</v>
       </c>
@@ -35645,7 +35646,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="211" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>524</v>
       </c>
@@ -36034,7 +36035,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="212" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>525</v>
       </c>
@@ -36423,10 +36424,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>532</v>
       </c>
@@ -36818,7 +36819,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>445</v>
       </c>
@@ -37165,7 +37166,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="216" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>446</v>
       </c>
@@ -37347,7 +37348,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="217" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -37361,7 +37362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -37375,7 +37376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>447</v>
       </c>
@@ -37392,7 +37393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="220" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>448</v>
       </c>
@@ -37403,10 +37404,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="221" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
     </row>
-    <row r="222" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>533</v>
       </c>
@@ -37792,7 +37793,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="223" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>534</v>
       </c>
@@ -38187,7 +38188,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>535</v>
       </c>
@@ -38582,7 +38583,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="225" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>536</v>
       </c>
@@ -38968,7 +38969,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="226" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>537</v>
       </c>
@@ -39354,7 +39355,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="227" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>538</v>
       </c>
@@ -39740,7 +39741,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="228" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>539</v>
       </c>
@@ -40126,15 +40127,15 @@
         <v>539</v>
       </c>
     </row>
-    <row r="229" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="231" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>541</v>
       </c>
@@ -40415,7 +40416,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="232" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>542</v>
       </c>
@@ -40696,7 +40697,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="233" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>543</v>
       </c>
@@ -40977,7 +40978,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="234" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>544</v>
       </c>
@@ -41258,7 +41259,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="235" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>545</v>
       </c>
@@ -41539,7 +41540,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>546</v>
       </c>
@@ -41820,16 +41821,16 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>547</v>
       </c>
@@ -41993,12 +41994,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="241" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="242" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
         <v>155</v>
@@ -42190,7 +42191,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="243" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="F243" s="1" t="s">
         <v>592</v>
@@ -42379,7 +42380,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="244" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>155</v>
       </c>
@@ -42567,10 +42568,10 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="245" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="J246" s="1" t="s">
         <v>354</v>
@@ -42666,103 +42667,103 @@
         <v>321</v>
       </c>
     </row>
-    <row r="247" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="1" t="s">
         <v>549</v>
@@ -42861,7 +42862,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="280" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>641</v>
       </c>
@@ -42962,7 +42963,7 @@
         <v>-18093.705000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>642</v>
       </c>
@@ -43012,7 +43013,7 @@
         <v>7000.2059999999983</v>
       </c>
     </row>
-    <row r="282" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="AJ282" s="1" t="s">
         <v>312</v>
@@ -43035,20 +43036,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>694</v>
       </c>
@@ -43056,7 +43057,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>551</v>
       </c>
@@ -43064,7 +43065,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>716</v>
       </c>
@@ -43072,7 +43073,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>229</v>
       </c>
@@ -43080,7 +43081,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>230</v>
       </c>
@@ -43088,7 +43089,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>552</v>
       </c>
@@ -43096,7 +43097,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>717</v>
       </c>
@@ -43104,7 +43105,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>226</v>
       </c>
@@ -43112,7 +43113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>718</v>
       </c>
@@ -43120,7 +43121,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>220</v>
       </c>
@@ -43128,7 +43129,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>228</v>
       </c>
@@ -43136,7 +43137,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>719</v>
       </c>
@@ -43144,7 +43145,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>222</v>
       </c>
@@ -43152,7 +43153,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>227</v>
       </c>
@@ -43160,7 +43161,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>720</v>
       </c>
@@ -43168,7 +43169,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>219</v>
       </c>
@@ -43176,7 +43177,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>221</v>
       </c>
@@ -43184,7 +43185,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>223</v>
       </c>
@@ -43192,7 +43193,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>224</v>
       </c>
@@ -43200,7 +43201,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>565</v>
       </c>
@@ -43208,7 +43209,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>225</v>
       </c>
@@ -43216,7 +43217,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>212</v>
       </c>
@@ -43224,7 +43225,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>721</v>
       </c>
@@ -43232,7 +43233,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>217</v>
       </c>
@@ -43240,7 +43241,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>722</v>
       </c>
@@ -43248,7 +43249,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>723</v>
       </c>
@@ -43256,7 +43257,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>218</v>
       </c>
@@ -43264,7 +43265,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>213</v>
       </c>
@@ -43272,7 +43273,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>214</v>
       </c>
@@ -43280,7 +43281,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>215</v>
       </c>
@@ -43288,7 +43289,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>216</v>
       </c>
@@ -43296,7 +43297,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>724</v>
       </c>
@@ -43304,7 +43305,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>577</v>
       </c>
@@ -43312,7 +43313,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>231</v>
       </c>
@@ -43320,7 +43321,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>232</v>
       </c>
@@ -43328,7 +43329,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>210</v>
       </c>
@@ -43336,7 +43337,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>202</v>
       </c>
@@ -43344,7 +43345,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>201</v>
       </c>
@@ -43352,7 +43353,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
         <v>200</v>
       </c>
@@ -43360,7 +43361,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
         <v>203</v>
       </c>
@@ -43368,7 +43369,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>207</v>
       </c>
@@ -43376,7 +43377,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
         <v>205</v>
       </c>
@@ -43384,7 +43385,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
         <v>204</v>
       </c>
@@ -43392,7 +43393,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
         <v>211</v>
       </c>
@@ -43400,7 +43401,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>209</v>
       </c>
@@ -43408,7 +43409,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
         <v>588</v>
       </c>
@@ -43416,7 +43417,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="34" t="s">
         <v>208</v>
       </c>
@@ -43424,7 +43425,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
         <v>206</v>
       </c>
@@ -43439,55 +43440,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>658</v>
       </c>
@@ -43499,7 +43500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK71"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -43508,25 +43509,25 @@
       <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="4" customWidth="1"/>
+    <col min="13" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="22" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>643</v>
       </c>
@@ -43568,7 +43569,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>654</v>
       </c>
@@ -43617,9 +43618,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -43644,11 +43645,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>659</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -43690,7 +43691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="28" t="s">
@@ -43715,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="28" t="s">
@@ -43740,9 +43741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="28" t="s">
         <v>169</v>
       </c>
@@ -43765,9 +43766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>164</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -43792,7 +43793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="29" t="s">
@@ -43817,9 +43818,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="29" t="s">
         <v>171</v>
       </c>
@@ -43842,7 +43843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>661</v>
       </c>
@@ -43888,9 +43889,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -43915,7 +43916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="27" t="s">
@@ -43940,7 +43941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="27" t="s">
@@ -43965,7 +43966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="27" t="s">
@@ -43990,7 +43991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="27" t="s">
@@ -44015,7 +44016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="27" t="s">
@@ -44040,9 +44041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="27" t="s">
         <v>179</v>
       </c>
@@ -44065,7 +44066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>664</v>
       </c>
@@ -44111,7 +44112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="45"/>
       <c r="C24" s="30" t="s">
@@ -44136,7 +44137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="31" t="s">
@@ -44161,9 +44162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="31" t="s">
         <v>180</v>
       </c>
@@ -44186,7 +44187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="40" t="s">
         <v>655</v>
@@ -44213,7 +44214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="45"/>
       <c r="C28" s="25" t="s">
@@ -44238,7 +44239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
       <c r="C29" s="25" t="s">
@@ -44263,7 +44264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="25" t="s">
@@ -44288,7 +44289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="25" t="s">
@@ -44313,7 +44314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="25" t="s">
@@ -44338,7 +44339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="25" t="s">
@@ -44363,7 +44364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="25" t="s">
@@ -44388,7 +44389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="25" t="s">
@@ -44413,9 +44414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
-      <c r="B36" s="43"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="25" t="s">
         <v>168</v>
       </c>
@@ -44438,9 +44439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -44465,7 +44466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
       <c r="C38" s="27" t="s">
@@ -44490,7 +44491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="45"/>
       <c r="C39" s="27" t="s">
@@ -44515,7 +44516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="27" t="s">
@@ -44540,7 +44541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
       <c r="C41" s="27" t="s">
@@ -44565,7 +44566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="27" t="s">
@@ -44590,9 +44591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="27" t="s">
         <v>173</v>
       </c>
@@ -44615,11 +44616,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>659</v>
       </c>
       <c r="C46" s="28" t="s">
@@ -44661,7 +44662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="28" t="s">
@@ -44686,7 +44687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="28" t="s">
@@ -44711,7 +44712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="28" t="s">
@@ -44736,7 +44737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="45"/>
       <c r="C50" s="28" t="s">
@@ -44761,7 +44762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="28" t="s">
@@ -44786,7 +44787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="28" t="s">
@@ -44811,7 +44812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="45"/>
       <c r="C53" s="28" t="s">
@@ -44836,9 +44837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="28" t="s">
         <v>182</v>
       </c>
@@ -44861,9 +44862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="44" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -44888,7 +44889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
       <c r="C56" s="29" t="s">
@@ -44913,7 +44914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="29" t="s">
@@ -44938,7 +44939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="29" t="s">
@@ -44963,7 +44964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="29" t="s">
@@ -44988,7 +44989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="29" t="s">
@@ -45013,7 +45014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="29" t="s">
@@ -45038,9 +45039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="29" t="s">
         <v>171</v>
       </c>
@@ -45063,7 +45064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
         <v>669</v>
       </c>
@@ -45108,9 +45109,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="25" t="s">
         <v>671</v>
       </c>
@@ -45133,11 +45134,11 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="43" t="s">
         <v>659</v>
       </c>
       <c r="C69" s="28" t="s">
@@ -45179,9 +45180,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="28" t="s">
         <v>173</v>
       </c>
@@ -45204,9 +45205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="41"/>
+      <c r="B71" s="44" t="s">
         <v>164</v>
       </c>
       <c r="C71" s="29" t="s">
@@ -45233,27 +45234,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="A23:A43"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A46:A62"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B36"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A23:A43"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A46:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -45265,43 +45266,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>673</v>
       </c>
@@ -45372,7 +45372,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <f t="shared" ref="A2:A3" ca="1" si="0">IF(O2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>1</v>
@@ -45451,7 +45451,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -45530,7 +45530,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A37" ca="1" si="11">IF(O4="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>1</v>
@@ -45608,7 +45608,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45686,7 +45686,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45764,7 +45764,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45842,7 +45842,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <f t="shared" ref="A8" ca="1" si="20">IF(O8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>1</v>
@@ -45921,7 +45921,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -45999,7 +45999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46077,7 +46077,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46155,7 +46155,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46179,7 +46179,7 @@
         <v>692</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I12" s="32">
         <v>12</v>
@@ -46233,7 +46233,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46311,7 +46311,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46389,7 +46389,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46467,7 +46467,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46545,7 +46545,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
@@ -46623,7 +46623,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -46701,7 +46701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>3</v>
@@ -46779,7 +46779,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>3</v>
@@ -46857,7 +46857,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -46935,7 +46935,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>4</v>
@@ -47013,7 +47013,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -47091,7 +47091,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <f t="shared" ca="1" si="11"/>
         <v>5</v>
@@ -47169,7 +47169,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>5</v>
@@ -47247,7 +47247,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -47325,7 +47325,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47349,7 +47349,7 @@
         <v>692</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I27" s="35">
         <v>23</v>
@@ -47403,7 +47403,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47481,7 +47481,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47559,7 +47559,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47637,7 +47637,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47715,7 +47715,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47793,7 +47793,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
@@ -47871,7 +47871,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -47949,7 +47949,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>7</v>
@@ -48027,7 +48027,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <f t="shared" ca="1" si="11"/>
         <v>7</v>
@@ -48105,7 +48105,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -48183,7 +48183,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48230,7 +48230,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48277,7 +48277,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48324,7 +48324,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48371,7 +48371,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48418,7 +48418,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48465,7 +48465,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48512,7 +48512,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48559,7 +48559,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48606,7 +48606,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48653,7 +48653,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48700,7 +48700,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48747,7 +48747,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48794,7 +48794,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48841,7 +48841,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48888,7 +48888,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48935,7 +48935,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -48982,7 +48982,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49029,7 +49029,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49076,7 +49076,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49123,7 +49123,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49170,7 +49170,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49217,7 +49217,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49264,7 +49264,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49311,7 +49311,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49358,7 +49358,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
@@ -49405,7 +49405,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ref="J64:J95" ca="1" si="39">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
@@ -49420,7 +49420,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" ref="Q64:Q95" ca="1" si="42">IF(O64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P64)))), 0)</f>
+        <f t="shared" ref="Q64:Q71" ca="1" si="42">IF(O64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P64)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R64" s="1">
@@ -49452,7 +49452,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49499,7 +49499,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49546,7 +49546,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49593,7 +49593,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49640,7 +49640,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49687,7 +49687,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49734,7 +49734,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49781,7 +49781,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49828,7 +49828,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49875,7 +49875,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49922,7 +49922,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -49969,7 +49969,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50016,7 +50016,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50063,7 +50063,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50110,7 +50110,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50157,7 +50157,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50204,7 +50204,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50251,7 +50251,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50298,7 +50298,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50345,7 +50345,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50392,7 +50392,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50439,7 +50439,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50486,7 +50486,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50533,7 +50533,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50580,7 +50580,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50627,7 +50627,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50674,7 +50674,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50721,7 +50721,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50768,7 +50768,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50815,7 +50815,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50862,7 +50862,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -50909,18 +50909,18 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ref="J96:J120" ca="1" si="50">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
       </c>
       <c r="M96" s="19"/>
       <c r="N96" s="18" t="str">
-        <f t="shared" ref="N96:N127" ca="1" si="51">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
+        <f t="shared" ref="N96:N120" ca="1" si="51">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
         <v/>
       </c>
       <c r="P96" s="1">
-        <f t="shared" ref="P96:P127" si="52">IF(O96 = "-", -W96,I96)</f>
+        <f t="shared" ref="P96:P120" si="52">IF(O96 = "-", -W96,I96)</f>
         <v>0</v>
       </c>
       <c r="Q96" s="1">
@@ -50948,7 +50948,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" ref="W96:W127" si="57">IF(V96 = "", "", V96/U96)</f>
+        <f t="shared" ref="W96:W120" si="57">IF(V96 = "", "", V96/U96)</f>
         <v>0</v>
       </c>
       <c r="X96" s="1" t="str">
@@ -50956,7 +50956,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51003,7 +51003,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51050,7 +51050,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51097,7 +51097,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51144,7 +51144,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51191,7 +51191,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51238,7 +51238,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51285,7 +51285,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51332,7 +51332,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51379,7 +51379,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51426,7 +51426,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51473,7 +51473,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51520,7 +51520,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51567,7 +51567,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51614,7 +51614,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51661,7 +51661,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51708,7 +51708,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51755,7 +51755,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J114" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51802,7 +51802,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J115" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51849,7 +51849,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J116" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51896,7 +51896,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J117" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51943,7 +51943,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J118" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -51990,7 +51990,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J119" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -52037,7 +52037,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J120" s="11" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
@@ -52161,7 +52161,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -52170,7 +52170,7 @@
           </x14:formula2>
           <xm:sqref>B2:B120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -52179,7 +52179,7 @@
           </x14:formula2>
           <xm:sqref>E2:F120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -52188,7 +52188,7 @@
           </x14:formula2>
           <xm:sqref>L1:L120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -52204,41 +52204,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>673</v>
       </c>
@@ -52309,7 +52308,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37">
         <f ca="1">IF(O2="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>8</v>
@@ -52387,7 +52386,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37">
         <f ca="1">IF(O3="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>8</v>
@@ -52465,7 +52464,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <f ca="1">IF(O4="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>8</v>
@@ -52543,7 +52542,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="str">
         <f ca="1">IF(O5="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
         <v>-</v>
@@ -52621,7 +52620,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f ca="1">IF(O6="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
         <v>9</v>
@@ -52699,7 +52698,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f ca="1">IF(O7="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>9</v>
@@ -52777,7 +52776,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="str">
         <f ca="1">IF(O8="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>-</v>
@@ -52855,7 +52854,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f ca="1">IF(O9="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>10</v>
@@ -52933,7 +52932,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="str">
         <f ca="1">IF(O10="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>-</v>
@@ -53011,7 +53010,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f ca="1">IF(O11="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R11)))))</f>
         <v>11</v>
@@ -53089,7 +53088,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <f ca="1">IF(O12="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R12)))))</f>
         <v>11</v>
@@ -53167,7 +53166,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <f ca="1">IF(O13="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R13)))))</f>
         <v>11</v>
@@ -53245,7 +53244,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="str">
         <f ca="1">IF(O14="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>-</v>
@@ -53323,7 +53322,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f ca="1">IF(O15="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>12</v>
@@ -53401,7 +53400,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f ca="1">IF(O16="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R16)))))</f>
         <v>12</v>
@@ -53479,7 +53478,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="str">
         <f ca="1">IF(O17="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R17)))))</f>
         <v>-</v>
@@ -53557,7 +53556,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <f ca="1">IF(O18="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R18)))))</f>
         <v>13</v>
@@ -53635,7 +53634,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="str">
         <f ca="1">IF(O19="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R19)))))</f>
         <v>-</v>
@@ -53713,7 +53712,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
         <f ca="1">IF(O20="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R20)))))</f>
         <v>14</v>
@@ -53792,7 +53791,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <f ca="1">IF(O21="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R21)))))</f>
         <v>14</v>
@@ -53870,7 +53869,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="str">
         <f ca="1">IF(O22="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R22)))))</f>
         <v>-</v>
@@ -53948,7 +53947,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <f ca="1">IF(O23="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
         <v>15</v>
@@ -54026,7 +54025,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
         <f ca="1">IF(O24="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R24)))))</f>
         <v>15</v>
@@ -54104,7 +54103,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <f ca="1">IF(O25="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R25)))))</f>
         <v>15</v>
@@ -54182,7 +54181,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="str">
         <f ca="1">IF(O26="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R26)))))</f>
         <v>-</v>
@@ -54260,7 +54259,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <f ca="1">IF(O27="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R27)))))</f>
         <v>16</v>
@@ -54338,7 +54337,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="str">
         <f ca="1">IF(O28="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
         <v>-</v>
@@ -54416,7 +54415,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37">
         <f ca="1">IF(O29="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R29)))))</f>
         <v>17</v>
@@ -54494,7 +54493,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="str">
         <f ca="1">IF(O30="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R30)))))</f>
         <v>-</v>
@@ -54572,7 +54571,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
         <f ca="1">IF(O31="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R31)))))</f>
         <v>18</v>
@@ -54650,7 +54649,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="str">
         <f ca="1">IF(O32="-", "-", 1 + MAX(Вода!$A$4:$A$98) + SUM(INDIRECT(ADDRESS(2,COLUMN(R32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R32)))))</f>
         <v>-</v>
@@ -54728,7 +54727,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -54775,7 +54774,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -54822,7 +54821,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -54869,7 +54868,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -54916,7 +54915,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -54963,7 +54962,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ref="J38:J69" ca="1" si="28">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
@@ -54978,7 +54977,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" ref="Q38:Q69" ca="1" si="31">IF(O38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P38)))), 0)</f>
+        <f t="shared" ref="Q38:Q45" ca="1" si="31">IF(O38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P38)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R38" s="1">
@@ -55010,7 +55009,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55057,7 +55056,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55104,7 +55103,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55151,7 +55150,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55198,7 +55197,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55245,7 +55244,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55292,7 +55291,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55339,7 +55338,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55386,7 +55385,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55433,7 +55432,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55480,7 +55479,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55527,7 +55526,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55574,7 +55573,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55621,7 +55620,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55668,7 +55667,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55715,7 +55714,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55762,7 +55761,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55809,7 +55808,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55856,7 +55855,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55903,7 +55902,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55950,7 +55949,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55997,7 +55996,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56044,7 +56043,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56091,7 +56090,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56138,7 +56137,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56185,7 +56184,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56232,7 +56231,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56279,7 +56278,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56326,7 +56325,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56373,7 +56372,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56420,7 +56419,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -56467,18 +56466,18 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ref="J70:J94" ca="1" si="39">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
       </c>
       <c r="M70" s="19"/>
       <c r="N70" s="18" t="str">
-        <f t="shared" ref="N70:N101" ca="1" si="40">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
+        <f t="shared" ref="N70:N94" ca="1" si="40">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
         <v/>
       </c>
       <c r="P70" s="1">
-        <f t="shared" ref="P70:P101" si="41">IF(O70 = "-", -W70,I70)</f>
+        <f t="shared" ref="P70:P94" si="41">IF(O70 = "-", -W70,I70)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="1">
@@ -56506,7 +56505,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W70:W101" si="46">IF(V70 = "", "", V70/U70)</f>
+        <f t="shared" ref="W70:W94" si="46">IF(V70 = "", "", V70/U70)</f>
         <v>0</v>
       </c>
       <c r="X70" s="1" t="str">
@@ -56514,7 +56513,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56561,7 +56560,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56608,7 +56607,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56655,7 +56654,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56702,7 +56701,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56749,7 +56748,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56796,7 +56795,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56843,7 +56842,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56890,7 +56889,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56937,7 +56936,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -56984,7 +56983,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57031,7 +57030,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57078,7 +57077,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57125,7 +57124,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57172,7 +57171,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57219,7 +57218,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57266,7 +57265,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57313,7 +57312,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57360,7 +57359,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57407,7 +57406,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57454,7 +57453,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57501,7 +57500,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57548,7 +57547,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57595,7 +57594,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -57691,7 +57690,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -57700,7 +57699,7 @@
           </x14:formula2>
           <xm:sqref>B2:B94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -57709,7 +57708,7 @@
           </x14:formula2>
           <xm:sqref>E2:F94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -57718,7 +57717,7 @@
           </x14:formula2>
           <xm:sqref>L1:L94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -57734,29 +57733,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>707</v>
       </c>
@@ -57768,20 +57767,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AMK2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>230</v>
       </c>
@@ -57800,16 +57799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -57822,134 +57821,134 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>713</v>
       </c>
@@ -57961,20 +57960,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>694</v>
       </c>
@@ -57982,7 +57981,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>247</v>
       </c>
@@ -57990,7 +57989,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>237</v>
       </c>
@@ -57998,7 +57997,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>236</v>
       </c>
@@ -58006,7 +58005,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>238</v>
       </c>
@@ -58014,7 +58013,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>239</v>
       </c>
@@ -58022,7 +58021,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>240</v>
       </c>
@@ -58030,7 +58029,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>233</v>
       </c>
@@ -58038,7 +58037,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>253</v>
       </c>
@@ -58046,7 +58045,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>251</v>
       </c>
@@ -58054,7 +58053,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>248</v>
       </c>
@@ -58062,7 +58061,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>258</v>
       </c>
@@ -58070,7 +58069,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>259</v>
       </c>
@@ -58078,7 +58077,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>245</v>
       </c>
@@ -58086,7 +58085,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>242</v>
       </c>
@@ -58094,7 +58093,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>235</v>
       </c>
@@ -58102,7 +58101,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>243</v>
       </c>
@@ -58110,7 +58109,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>562</v>
       </c>
@@ -58118,7 +58117,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>246</v>
       </c>
@@ -58126,7 +58125,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>244</v>
       </c>
@@ -58134,7 +58133,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>234</v>
       </c>
@@ -58142,7 +58141,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>241</v>
       </c>
@@ -58150,7 +58149,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>252</v>
       </c>
@@ -58158,7 +58157,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>255</v>
       </c>
@@ -58166,7 +58165,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>257</v>
       </c>
@@ -58174,7 +58173,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>250</v>
       </c>
@@ -58182,7 +58181,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>254</v>
       </c>
@@ -58190,7 +58189,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>249</v>
       </c>
@@ -58198,7 +58197,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>256</v>
       </c>
@@ -58206,7 +58205,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>714</v>
       </c>
